--- a/04_Test/Entscheidungstabelle_UC1+C2.xlsx
+++ b/04_Test/Entscheidungstabelle_UC1+C2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\AI-SWP\04_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,14 +98,6 @@
     <t>UC2</t>
   </si>
   <si>
-    <t>1. Klick auf "Öffnen"
-2. Wähle die Datei "UseCaseBeispiel - Keine Fehler" aus
-3. Klick auf "Öffnen" um die Datei einzulesen
-4. Die Datei wird eingelesen
-5. Der Graph und die Szenariomatrix werden gezeichnet
-6. Um in den Graph/Matrix Tap zu wechseln auf den entsprechenden Button klicken</t>
-  </si>
-  <si>
     <t>RUCM-Bestandteile fehlen</t>
   </si>
   <si>
@@ -155,6 +147,14 @@
   </si>
   <si>
     <t>Regel 19: Reference Step fehlt</t>
+  </si>
+  <si>
+    <t>1. Klick auf "Öffnen"
+2. Wähle die Datei "UseCaseBeispiel - Keine Fehler" aus
+3. Klick auf "Öffnen" um die Datei einzulesen
+4. Die Datei wird eingelesen
+5. Der Graph und die Szenariomatrix werden gezeichnet
+6. Um in den Graph/Matrix Tab zu wechseln auf den entsprechenden Button klicken</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -653,22 +653,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,22 +699,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
